--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -575,7 +575,7 @@
         <v>45586</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45506</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45607.52168981481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44853</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44964</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45237</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45790.67758101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44859</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45589.34458333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45212</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45295</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45771</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44433.55907407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44795</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45912.40692129629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45832.53813657408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>45944</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45049</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45796.63600694444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>45980.62435185185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45698</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45684.44825231482</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44463.40674768519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45428</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45804.45221064815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45820.34439814815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45917.61134259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45834</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>45988</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>45999</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45893</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44904</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44487.66532407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44648</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44804</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44735.63122685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>44489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>45341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>45517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45301</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45701</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>45818.56559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>45820.60171296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45910.65401620371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45922.52559027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45833.43407407407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45834.41993055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45638.43048611111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>45714</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45964</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45981</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45981</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45526</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>45137</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45559</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45072</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>44678</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44648</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44446.60008101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44417.69528935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44840</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44796</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44421</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44365</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45313.6253125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45763.60056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44910</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45803.66833333333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45891.3190625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45803.67</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45901</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45611</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45833.57443287037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45932.55138888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45943</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>45848.4612037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>45863.57627314814</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45952.39126157408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45958.54494212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45835.49065972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45960.43836805555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45960.65090277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45965.66847222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45980</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>45513</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45994.48524305555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45995.61788194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45645</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>46003</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44692</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>45773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45406.96350694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44279.30587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44677</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44577</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44414</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44350</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44354.25563657407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44659.6078587963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44489.94650462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44671</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44313</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44414</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44414</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44463.27165509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44350</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44414</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44414</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>44648</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44462.92758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44274</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44286</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44274</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44284</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44464</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44865</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>44609</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>44609</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>44389.38752314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>44671</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>44461.62384259259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>44887.95318287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44543.62024305556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44378</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44371.60706018518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44530.47554398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44648</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44473</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44734</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44248</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44566</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44566</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44600.31258101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44274</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44313</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44358</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44749</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44722</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44438</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44480</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44530</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44414</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44565</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44573.46630787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44566</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44617</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44820.29530092593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44625.78322916666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44596</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44831.94553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44279.38570601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799.94413194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799.94417824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44743.43572916667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44238</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44873.32177083333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44313</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44480</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44565</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44439</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44356</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44428.58703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44796</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44796</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44797.36959490741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44484</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44293</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44356</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44795</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44812.44233796297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44671</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45310.9390162037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44463.40267361111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45419.6787962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45692.91950231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44423</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>45411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44552</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45022.44041666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44833</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44609</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45646.6669212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45238.9265625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45089.37991898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45762</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44880.59427083333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44298</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44330</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44783.85420138889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45682</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45125.95043981481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44248</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45646.63835648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45635.41479166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45210.46891203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45419</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45763.6009375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44392</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45254</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44489</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45600.3993287037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45600.40488425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45114</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>45537.27357638889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45582</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44881.9272337963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44377.49069444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45237</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44301.66649305556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45512.53328703704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44558</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45345</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45600.38277777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45539.52540509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44386</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45226</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45232</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44970</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45604.69282407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45285</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44441.35422453703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45799.34436342592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45799.34511574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45397</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45397</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45764</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45798.44548611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>45798</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44983</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44862.66424768518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>45798.71922453704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44474.65423611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45758</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45803.61491898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45803.66424768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45884.46990740741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45887</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45544.59535879629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45772.35878472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45772.3677662037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45804.34440972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45260</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45527.50440972222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45590</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44484</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45544.57657407408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45764</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45429</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45464</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>45840.39109953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45645.46262731482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45763.5946412037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45516</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45516.94962962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45649.45567129629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44935</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45890</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45243.48854166667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45813.53178240741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45589</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>45408.96730324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45891.37986111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45813</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45813</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45874</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45813.49092592593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>45813.46928240741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45891</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45832.67101851852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45813.42777777778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45895.44861111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45895</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45894</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45543.34873842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>45544.4128125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45316.44841435185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45894</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45709.64082175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45481.95275462963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45714.69826388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45893.46916666667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45764.46482638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45560.44918981481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45246</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45766.71910879629</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45897.48924768518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45897</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45897.33677083333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45897.48153935185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45818.60010416667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45194.40387731481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45244</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45427.93494212963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45901.41519675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45901.37751157407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45818.34452546296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45769</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45748</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45818.52607638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45818</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45574.51377314814</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45818.56925925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45818</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45818.43130787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45901.65690972222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45902.32747685185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45902.40394675926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45903</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45901</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45831</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45110</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>45905.42783564814</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>45103.92518518519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45906.71729166667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>45646</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45744.46895833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45824</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45070.92538194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44648</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45907.34451388889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45824</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45911.3857175926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45827</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45827</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45910</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45232</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45910</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>45910</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>45408.96738425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45826.46918981482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45827</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>44735</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45912.63472222222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45672</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45915.40732638889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45915</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45764</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45912.40695601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45912.40694444445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45915.69679398148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45912</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>45826</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>45254</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>45917</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>45826.49025462963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45646.62667824074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45646.62850694444</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45831.60569444444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45463.58862268519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45831.54939814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45715.34438657408</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45919.56777777777</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>45919.57042824074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45831.5465625</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>45922</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>45667.37363425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45667.39547453704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45833.43721064815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45922</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45922</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45922</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45922.59516203704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45922.59851851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45832.68653935185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45923.39789351852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>45925.65679398148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>45925.65686342592</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>45833</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>45832.6991087963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45832.69638888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44484.36106481482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44628</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>45833.61671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45834.59451388889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45924</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45161</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45161</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45835.74189814815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45718.80024305556</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>45834.59415509259</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45834.59708333333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45646.64119212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45246</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45929.42951388889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45630.69038194444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44421.25067129629</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45926.56126157408</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45926.6309375</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45835.44276620371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45356</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>44299</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45358</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45102.92748842593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45316</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45770</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45931.45284722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45930.52233796296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>45930.51315972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>45930.36501157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45803</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44648</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45930</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>45152</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45212</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45932.6296875</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45933.27458333333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>45906</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45932.55758101852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45839.46466435185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45476.58649305555</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45933.50032407408</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45933.43833333333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45933.44135416667</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45841.5124537037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32102,7 +32102,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45551.34525462963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45841.69828703703</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45840</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45932.67795138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45707.53890046296</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45840.50157407407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45841.5196875</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45935.85989583333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45935.86195601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45936.42548611111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45936.42710648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45560.44894675926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45935.86399305556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45840</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>44477</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45938.61608796296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45840.39805555555</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45937.35234953704</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45840.37375</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45840.37756944444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45936.86752314815</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45132</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45747.57071759259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45938.6769212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45649.38905092593</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45649.4091550926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45939.63200231481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45938.46935185185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45938.44502314815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45843.34435185185</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45938.63663194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>45939.51086805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>45939.56126157408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45105.92532407407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45943</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45201.64971064815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45099</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44994</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>45940.5402662037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44486.60745370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>45728.4180324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>45068</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45945.29869212963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45945.36623842592</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45944.61510416667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45944.65270833333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45944</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>45944</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45944.61675925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45944.61872685186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45944.64472222222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>45945.36435185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45944.56497685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45583.69834490741</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45947</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45947.34690972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45341</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45947.446875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45947.34611111111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45951</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>45950.69006944444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35974,7 +35974,7 @@
         <v>45686.42653935185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45561.5891087963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45747.56618055556</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>45950</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>45603.75905092592</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45761</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>45257.80766203703</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45949</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45950</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45856.53160879629</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44522.9206712963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>45951</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>45796.51097222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36797,7 +36797,7 @@
         <v>45674</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>45949</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>45860.67740740741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>45596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45596.7612962963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45860.59417824074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45791</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>45863.56016203704</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45587.49114583333</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44490</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>45953.36576388889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45863.6125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45863.67741898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45769.49768518518</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45953.57349537037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>45953.36524305555</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45953.36546296296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45645</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45685</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45957.39877314815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>45954</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44378</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45954</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45456</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45870</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45369.48284722222</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45834</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45950</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44994</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>45870</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45955.3459375</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45955.34597222223</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38701,7 +38701,7 @@
         <v>45685</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>45838.5983912037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>45646.61649305555</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45958.45878472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38934,7 +38934,7 @@
         <v>45874.42918981481</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>45875.45590277778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>45875</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>45512.36836805556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39172,7 +39172,7 @@
         <v>45868</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45874</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45406</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>45771.68158564815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>45958.4603587963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45958.45619212963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45960</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>44881.55375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45877.44846064815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44356</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45961.41893518518</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45961</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45960.65726851852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45880.49046296296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>45587</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45965</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>45964.67619212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>45965.47797453704</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45248.94667824074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45965.68004629629</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45884</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45965</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45965.6757175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>45965</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>45964.53335648148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>45966</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>45966.68931712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>45966.69827546296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>45691.49005787037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41061,7 +41061,7 @@
         <v>44648</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41123,7 +41123,7 @@
         <v>45881.45475694445</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41180,7 +41180,7 @@
         <v>45966.67784722222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41237,7 +41237,7 @@
         <v>45882</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41294,7 +41294,7 @@
         <v>44565</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41351,7 +41351,7 @@
         <v>45642</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41408,7 +41408,7 @@
         <v>45971</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41465,7 +41465,7 @@
         <v>45265.27829861111</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41527,7 +41527,7 @@
         <v>45971</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41584,7 +41584,7 @@
         <v>45649.38344907408</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41641,7 +41641,7 @@
         <v>45882</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>45882</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>45646.65767361111</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>45971.57748842592</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>45971.65711805555</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>45574.46930555555</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45972.4177199074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42045,7 +42045,7 @@
         <v>45301</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42107,7 +42107,7 @@
         <v>45761</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42164,7 +42164,7 @@
         <v>45764.45171296296</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
         <v>45750</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         <v>45649.45255787037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42340,7 +42340,7 @@
         <v>44292</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42397,7 +42397,7 @@
         <v>45975</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>45884.46996527778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45646.66561342592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45974.53821759259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45975</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>45975.34753472222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>45974.68179398148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>45975.5727662037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>45446</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45974.54921296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45649.45635416666</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45211.44008101852</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45978.52048611111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45722</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45264.48927083334</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45978.64319444444</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>46020.64043981482</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>45978</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>45614.81146990741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>45692.92622685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>45981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>45981</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>45981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45980.57114583333</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45639</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>45980.46717592593</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44903</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45984.59300925926</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>45770</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45985.66855324074</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45985.45146990741</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45590.64114583333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45591</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45591</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45586</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>46029.64608796296</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>46029.6553125</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45425</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45986</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>46029.59305555555</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>44657</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45986</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45988.65805555556</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>46030.57347222222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>45653.3677662037</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45901.64849537037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45901.65390046296</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45988.42171296296</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>46030.51109953703</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45988.65815972222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45988</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45988.36314814815</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44847</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45988.56065972222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45210.53141203704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>46030.46947916667</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>45988</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>44573</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>46034.55679398148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45993</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45635.41246527778</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44859.95792824074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46093,7 +46093,7 @@
         <v>45356.96387731482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46150,7 +46150,7 @@
         <v>45992</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
         <v>44925</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         <v>45749</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46326,7 +46326,7 @@
         <v>45544.58453703704</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46383,7 +46383,7 @@
         <v>45993</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
         <v>45314</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>45429.92297453704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46554,7 +46554,7 @@
         <v>45993</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46611,7 +46611,7 @@
         <v>46031</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46668,7 +46668,7 @@
         <v>45993</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46725,7 +46725,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>46036.59482638889</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46844,7 +46844,7 @@
         <v>46037.4491550926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>46036.42668981481</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46958,7 +46958,7 @@
         <v>44963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47015,7 +47015,7 @@
         <v>46037.39973379629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47072,7 +47072,7 @@
         <v>45370</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>45995.47012731482</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>45995.39902777778</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47243,7 +47243,7 @@
         <v>45994.57334490741</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47300,7 +47300,7 @@
         <v>45994.57351851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47357,7 +47357,7 @@
         <v>44441</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47414,7 +47414,7 @@
         <v>45995.47004629629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47471,7 +47471,7 @@
         <v>45505</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45994.48310185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45994.47119212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45994.47709490741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44979</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47766,7 +47766,7 @@
         <v>45995.39693287037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47823,7 +47823,7 @@
         <v>45995</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47880,7 +47880,7 @@
         <v>45995.46967592592</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47937,7 +47937,7 @@
         <v>45994</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>46037.54501157408</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45994.55253472222</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48108,7 +48108,7 @@
         <v>45994.5735300926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48165,7 +48165,7 @@
         <v>46029</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48222,7 +48222,7 @@
         <v>45996</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>45999.38200231481</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>44374</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>45470</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>44362.48555555556</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45653</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>45999</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         <v>45999.38487268519</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>45999</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48740,7 +48740,7 @@
         <v>44529</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45574</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>46036</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45999.39361111111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45996.36384259259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49040,7 +49040,7 @@
         <v>46037.39181712963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>45980</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>45999</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49211,7 +49211,7 @@
         <v>46042.63012731481</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45764</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>46001.51188657407</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>45600</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45906</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>46000.37386574074</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49558,7 +49558,7 @@
         <v>46000.3825</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>46042.50797453704</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49677,7 +49677,7 @@
         <v>46000.63060185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>46001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49791,7 +49791,7 @@
         <v>46042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49848,7 +49848,7 @@
         <v>46001.88341435185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49905,7 +49905,7 @@
         <v>45014.54700231482</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49962,7 +49962,7 @@
         <v>46029</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50019,7 +50019,7 @@
         <v>46003.68957175926</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50076,7 +50076,7 @@
         <v>46003.62949074074</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50138,7 +50138,7 @@
         <v>44642</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50195,7 +50195,7 @@
         <v>46003</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50252,7 +50252,7 @@
         <v>46003.58865740741</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50309,7 +50309,7 @@
         <v>44964.94435185185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>46003</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>46003.57069444445</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45077</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>46003.69137731481</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>46003.70054398148</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>46001.849375</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45770.63423611111</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>46003.62936342593</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45254</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>46044</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44796</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>46048.65663194445</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>46048.67751157407</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>45448</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>46029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>45589.34527777778</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>46048.67752314815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>45694.65678240741</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         <v>46009</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51484,7 +51484,7 @@
         <v>46009</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>45523.38938657408</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51603,7 +51603,7 @@
         <v>46008.46902777778</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51660,7 +51660,7 @@
         <v>46029</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>46050.58863425926</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>45149</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51831,7 +51831,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51888,7 +51888,7 @@
         <v>45440.84460648148</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51945,7 +51945,7 @@
         <v>45429</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52002,7 +52002,7 @@
         <v>45994</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52059,7 +52059,7 @@
         <v>46029</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52116,7 +52116,7 @@
         <v>45085</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         <v>46009.53166666667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52230,7 +52230,7 @@
         <v>45427.93548611111</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52287,7 +52287,7 @@
         <v>46008.44835648148</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52344,7 +52344,7 @@
         <v>46007.88625</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52401,7 +52401,7 @@
         <v>45772.35642361111</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45232.44363425926</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52520,7 +52520,7 @@
         <v>46009</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52577,7 +52577,7 @@
         <v>45205</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52639,7 +52639,7 @@
         <v>46012.60637731481</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45281.57570601852</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52758,7 +52758,7 @@
         <v>46052.69329861111</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52815,7 +52815,7 @@
         <v>45896</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52877,7 +52877,7 @@
         <v>45902</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45902</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45639</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53058,7 +53058,7 @@
         <v>45583</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53120,7 +53120,7 @@
         <v>45583.69863425926</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53182,7 +53182,7 @@
         <v>46012.57121527778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53239,7 +53239,7 @@
         <v>46012.58362268518</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53296,7 +53296,7 @@
         <v>46012.59356481482</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>44903.92694444444</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>46012.56715277778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>46012.57534722222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>46012.59513888889</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45893</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53643,7 +53643,7 @@
         <v>45893</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53705,7 +53705,7 @@
         <v>46012</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53762,7 +53762,7 @@
         <v>46055</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53824,7 +53824,7 @@
         <v>45210</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53886,7 +53886,7 @@
         <v>46056.71625</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53943,7 +53943,7 @@
         <v>44833</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54000,7 +54000,7 @@
         <v>46057.63252314815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54057,7 +54057,7 @@
         <v>46056.64997685186</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54114,7 +54114,7 @@
         <v>45922</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>46056.69520833333</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>46056.39515046297</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>44524</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>46056.66880787037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>44445</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54456,7 +54456,7 @@
         <v>45894</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>45212</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54580,7 +54580,7 @@
         <v>44706</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>44747</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>44673</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54751,7 +54751,7 @@
         <v>46059.33741898148</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54808,7 +54808,7 @@
         <v>44333</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54865,7 +54865,7 @@
         <v>45624.4886574074</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45548.41165509259</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54979,7 +54979,7 @@
         <v>46037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55041,7 +55041,7 @@
         <v>44657</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>44657</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55155,7 +55155,7 @@
         <v>46058.42759259259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55217,7 +55217,7 @@
         <v>46058.42774305555</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>46058.49032407408</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55336,7 +55336,7 @@
         <v>44966.95085648148</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55398,7 +55398,7 @@
         <v>45645</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45674.63210648148</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45691.56939814815</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55574,7 +55574,7 @@
         <v>45301</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55631,7 +55631,7 @@
         <v>45593</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55693,7 +55693,7 @@
         <v>45429</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55750,7 +55750,7 @@
         <v>45429</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55807,7 +55807,7 @@
         <v>45085</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55864,7 +55864,7 @@
         <v>44900</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55926,7 +55926,7 @@
         <v>45483</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55983,7 +55983,7 @@
         <v>45153</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56040,7 +56040,7 @@
         <v>45509.43402777778</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56097,7 +56097,7 @@
         <v>45414</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56154,7 +56154,7 @@
         <v>45414.95038194444</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56211,7 +56211,7 @@
         <v>45256</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56268,7 +56268,7 @@
         <v>45562</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56330,7 +56330,7 @@
         <v>45653.46015046296</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56387,7 +56387,7 @@
         <v>44788.65809027778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56444,7 +56444,7 @@
         <v>45247.58217592593</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56501,7 +56501,7 @@
         <v>45483</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>45770.54408564815</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56615,7 +56615,7 @@
         <v>45499.63932870371</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56672,7 +56672,7 @@
         <v>45156</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56729,7 +56729,7 @@
         <v>44755</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56791,7 +56791,7 @@
         <v>45630.65877314815</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56848,7 +56848,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56910,7 +56910,7 @@
         <v>44642</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56972,7 +56972,7 @@
         <v>45070</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57029,7 +57029,7 @@
         <v>44901</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57086,7 +57086,7 @@
         <v>45195.94517361111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57148,7 +57148,7 @@
         <v>45300</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57205,7 +57205,7 @@
         <v>45649.39115740741</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57262,7 +57262,7 @@
         <v>45649.40401620371</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57319,7 +57319,7 @@
         <v>45589</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57381,7 +57381,7 @@
         <v>45589.34494212963</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57443,7 +57443,7 @@
         <v>45589</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57505,7 +57505,7 @@
         <v>45476.69083333333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57562,7 +57562,7 @@
         <v>45460</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57624,7 +57624,7 @@
         <v>45707.5637037037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57681,7 +57681,7 @@
         <v>45350</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -57738,7 +57738,7 @@
         <v>44732.92724537037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -57795,7 +57795,7 @@
         <v>45635.41770833333</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -57852,7 +57852,7 @@
         <v>45677.44833333333</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -57914,7 +57914,7 @@
         <v>44908</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57971,7 +57971,7 @@
         <v>45216</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58033,7 +58033,7 @@
         <v>44726.48164351852</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58090,7 +58090,7 @@
         <v>44566</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58147,7 +58147,7 @@
         <v>44841.66430555555</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58209,7 +58209,7 @@
         <v>45356</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58266,7 +58266,7 @@
         <v>45114</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58323,7 +58323,7 @@
         <v>45323</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58380,7 +58380,7 @@
         <v>44438</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         <v>44734.56864583334</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>45653.59047453704</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58551,7 +58551,7 @@
         <v>45770.56699074074</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45544.39978009259</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>44795</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -58722,7 +58722,7 @@
         <v>45161</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -58779,7 +58779,7 @@
         <v>45643.40710648148</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -58836,7 +58836,7 @@
         <v>45453.28876157408</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -58893,7 +58893,7 @@
         <v>45194.40741898148</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58955,7 +58955,7 @@
         <v>44908</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59012,7 +59012,7 @@
         <v>45358.95780092593</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45772</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59126,7 +59126,7 @@
         <v>45680.48986111111</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59188,7 +59188,7 @@
         <v>45187</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59250,7 +59250,7 @@
         <v>44887</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45166.83878472223</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59374,7 +59374,7 @@
         <v>45446.68098379629</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59436,7 +59436,7 @@
         <v>45653</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59493,7 +59493,7 @@
         <v>45174.4406712963</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59550,7 +59550,7 @@
         <v>45351</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59607,7 +59607,7 @@
         <v>45323</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -59664,7 +59664,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -59721,7 +59721,7 @@
         <v>45001</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45732</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -59835,7 +59835,7 @@
         <v>45772.35200231482</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -59892,7 +59892,7 @@
         <v>45772.37400462963</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59949,7 +59949,7 @@
         <v>45770.56481481482</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60006,7 +60006,7 @@
         <v>45708.36651620371</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60068,7 +60068,7 @@
         <v>44964.94416666667</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60130,7 +60130,7 @@
         <v>45105</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60192,7 +60192,7 @@
         <v>45035</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60249,7 +60249,7 @@
         <v>45476.58195601852</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         <v>45093.68881944445</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60368,7 +60368,7 @@
         <v>44883</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60430,7 +60430,7 @@
         <v>45771</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60487,7 +60487,7 @@
         <v>45529.93233796296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60544,7 +60544,7 @@
         <v>45099</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60601,7 +60601,7 @@
         <v>44484</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -60658,7 +60658,7 @@
         <v>45561</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         <v>44573</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -60777,7 +60777,7 @@
         <v>45454</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -60834,7 +60834,7 @@
         <v>44614.40652777778</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -60891,7 +60891,7 @@
         <v>45079</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60948,7 +60948,7 @@
         <v>45762</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61005,7 +61005,7 @@
         <v>45646</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61062,7 +61062,7 @@
         <v>45205.37278935185</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61119,7 +61119,7 @@
         <v>45233.95826388889</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61181,7 +61181,7 @@
         <v>45646.61572916667</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61238,7 +61238,7 @@
         <v>44378</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61295,7 +61295,7 @@
         <v>45702.63587962963</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61357,7 +61357,7 @@
         <v>45379</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61414,7 +61414,7 @@
         <v>44994</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61471,7 +61471,7 @@
         <v>44568</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61528,7 +61528,7 @@
         <v>45572.48857638889</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61590,7 +61590,7 @@
         <v>45764</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -61647,7 +61647,7 @@
         <v>45764</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -61704,7 +61704,7 @@
         <v>45618.43688657408</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -61766,7 +61766,7 @@
         <v>45099.9296412037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -61823,7 +61823,7 @@
         <v>44812</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61880,7 +61880,7 @@
         <v>44823</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61942,7 +61942,7 @@
         <v>45646.57136574074</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61999,7 +61999,7 @@
         <v>45625</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62061,7 +62061,7 @@
         <v>45770.63237268518</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62118,7 +62118,7 @@
         <v>45723</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62175,7 +62175,7 @@
         <v>45723</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62232,7 +62232,7 @@
         <v>44856.89673611111</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62289,7 +62289,7 @@
         <v>45152</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62346,7 +62346,7 @@
         <v>45013</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62403,7 +62403,7 @@
         <v>44585</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62460,7 +62460,7 @@
         <v>45204</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62517,7 +62517,7 @@
         <v>45687</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -62574,7 +62574,7 @@
         <v>45667.37811342593</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -62631,7 +62631,7 @@
         <v>44391</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -62688,7 +62688,7 @@
         <v>44935.46053240741</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -62745,7 +62745,7 @@
         <v>45338</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -62802,7 +62802,7 @@
         <v>45453</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -62859,7 +62859,7 @@
         <v>45646.6295949074</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -62916,7 +62916,7 @@
         <v>45478</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         <v>45391.93160879629</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63030,7 +63030,7 @@
         <v>45778</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63092,7 +63092,7 @@
         <v>45782.40684027778</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63149,7 +63149,7 @@
         <v>45149</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63206,7 +63206,7 @@
         <v>45786</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63268,7 +63268,7 @@
         <v>45791.61200231482</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63330,7 +63330,7 @@
         <v>45791.615625</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63392,7 +63392,7 @@
         <v>45791.34467592592</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63454,7 +63454,7 @@
         <v>45379</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63511,7 +63511,7 @@
         <v>45791.61981481482</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -63573,7 +63573,7 @@
         <v>45791.59711805556</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -63635,7 +63635,7 @@
         <v>45792.34626157407</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -63697,7 +63697,7 @@
         <v>45793</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -63759,7 +63759,7 @@
         <v>45793.4693287037</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -63821,7 +63821,7 @@
         <v>45793</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         <v>45792.69864583333</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -63945,7 +63945,7 @@
         <v>45590</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64002,7 +64002,7 @@
         <v>45590</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64059,7 +64059,7 @@
         <v>45797</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -575,7 +575,7 @@
         <v>45586</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45506</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45607.52168981481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44853</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44964</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45237</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45790.67758101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44859</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45589.34458333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45212</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45295</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45771</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44433.55907407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44795</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45912.40692129629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45832.53813657408</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>45944</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45049</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45796.63600694444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>45980.62435185185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45698</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45684.44825231482</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>44463.40674768519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45428</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45804.45221064815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45820.34439814815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45917.61134259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45834</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>45988</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>45999</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>45893</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44904</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44487.66532407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44648</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44804</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44735.63122685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>44489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>45341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>45517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45301</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45701</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>45818.56559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>45820.60171296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45910.65401620371</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45922.52559027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45833.43407407407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>45834.41993055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45638.43048611111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>45714</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45964</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45981</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45981</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45526</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>45137</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45559</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>45072</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>44678</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>44648</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>44446.60008101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44417.69528935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44840</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>44796</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44421</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44365</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45313.6253125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45763.60056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>44910</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45803.66833333333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44529</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45891.3190625</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45803.67</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45901</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45611</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>45833.57443287037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45932.55138888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         <v>45943</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>45848.4612037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>45863.57627314814</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>45952.39126157408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45958.54494212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45835.49065972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45960.43836805555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45960.65090277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>45965.66847222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45980</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>45513</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45994.48524305555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45995.61788194445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45645</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>46003</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44692</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>45773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45406.96350694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44279.30587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44509</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44677</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44577</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44414</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44350</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44354.25563657407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44659.6078587963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44489.94650462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44671</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44313</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44414</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44414</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44463.27165509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44350</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44414</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44414</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>44648</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44462.92758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44274</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44286</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44617</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44274</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44284</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44464</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44865</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>44609</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>44609</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>44389.38752314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>44671</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>44461.62384259259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>44887.95318287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44721</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44543.62024305556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>44378</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44371.60706018518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44530.47554398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44648</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44473</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44734</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44248</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44566</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44566</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44600.31258101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>44274</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>44313</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44358</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44749</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44722</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>44438</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>44480</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44530</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44414</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44565</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44573.46630787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44566</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44617</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44820.29530092593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44625.78322916666</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44596</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44831.94553240741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>44279.38570601852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44799.94413194444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44799.94417824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>44313</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>44743.43572916667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44238</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44873.32177083333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>44313</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44480</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44565</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44439</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44356</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44428.58703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44796</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44796</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44797.36959490741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44484</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44293</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44356</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44795</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44812.44233796297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44671</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45310.9390162037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44463.40267361111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45419.6787962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45692.91950231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44423</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>45411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>44552</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45022.44041666666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44833</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44609</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45646.6669212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45238.9265625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45089.37991898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45762</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44880.59427083333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44298</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44330</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44783.85420138889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45682</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45125.95043981481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44248</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45646.63835648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45635.41479166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45210.46891203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45419</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45763.6009375</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44392</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>45254</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44489</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>45600.3993287037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45600.40488425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>45114</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>45161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>45537.27357638889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45582</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44881.9272337963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44377.49069444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45237</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44301.66649305556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45512.53328703704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44558</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45345</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45600.38277777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45766</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45539.52540509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44386</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45226</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44529</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44529</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45232</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44970</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45604.69282407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45285</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44441.35422453703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45799.34436342592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45799.34511574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45397</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>45397</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>45764</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>45798.44548611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>45798</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44983</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44862.66424768518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>45798.71922453704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45803</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44474.65423611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45758</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45643</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45803.61491898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45803.66424768518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>45884.46990740741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45887</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45544.59535879629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45772.35878472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45772.3677662037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45804.34440972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45260</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45527.50440972222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45590</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44484</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45544.57657407408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45764</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>45429</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>45464</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>45840.39109953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45645.46262731482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45763.5946412037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45516</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45516.94962962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>45649.45567129629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44935</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45890</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45243.48854166667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45813.53178240741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45589</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>45408.96730324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45891.37986111111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45813</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45813</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>45874</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45813.49092592593</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>45813.46928240741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45891</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45832.67101851852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45813.42777777778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45895.44861111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45895</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45894</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45543.34873842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>45544.4128125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45316.44841435185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45894</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45709.64082175926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>45481.95275462963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45714.69826388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45893.46916666667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45764.46482638889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45560.44918981481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45894</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45246</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45766.71910879629</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45897.48924768518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45897</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45897.33677083333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45897.48153935185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45448</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45818.60010416667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45194.40387731481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45244</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45427.93494212963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45894</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45901.41519675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>45901.37751157407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45818.34452546296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>45769</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>45748</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45818.52607638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45818</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45574.51377314814</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45818.56925925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45818</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45818.43130787037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45901.65690972222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45902.32747685185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45902.40394675926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45903</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25495,7 +25495,7 @@
         <v>45901</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>45831</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45110</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>45905.42783564814</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>45103.92518518519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45906.71729166667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>45646</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45824</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45744.46895833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45824</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45070.92538194444</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44648</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45907.34451388889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45824</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45911.3857175926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45827</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45827</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45910</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45232</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45910</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>45910</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>45408.96738425926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45826.46918981482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45827</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>44735</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45912.63472222222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45672</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45915.40732638889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45915</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45764</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45912.40695601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45912.40694444445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45915.69679398148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45912</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>45826</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>45254</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>45917</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>45826.49025462963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45646.62667824074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45646.62850694444</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45831.60569444444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45463.58862268519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45831.54939814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45715.34438657408</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45919.56777777777</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>45919.57042824074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>45831.5465625</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>45922</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>45667.37363425926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45667.39547453704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45833.43721064815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>45922</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45922</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45922</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45922.59516203704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>45922.59851851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45832.68653935185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45923.39789351852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>45925.65679398148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>45925.65686342592</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>45833</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>45832.6991087963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45832.69638888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44484.36106481482</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44628</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>45833.61671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45924</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45834.59451388889</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45924</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45161</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45161</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45835.74189814815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45718.80024305556</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>45834.59415509259</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45834.59708333333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45646.64119212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45246</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45929.42951388889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45630.69038194444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>44421.25067129629</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45926.56126157408</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45926.6309375</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45835.44276620371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45356</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>44299</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45358</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>45102.92748842593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>45316</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45770</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44529</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45931.45284722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>45930.52233796296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>45930.51315972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>45930.36501157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31217,7 +31217,7 @@
         <v>45803</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         <v>44648</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>45930</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>45152</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45212</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>45932.6296875</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45933.27458333333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>45906</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45932.55758101852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45839.46466435185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>45476.58649305555</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>45933.50032407408</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45933.43833333333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45933.44135416667</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32045,7 +32045,7 @@
         <v>45841.5124537037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32102,7 +32102,7 @@
         <v>44474</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32159,7 +32159,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45551.34525462963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45841.69828703703</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45840</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45932.67795138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45707.53890046296</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45840.50157407407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45841.5196875</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45935.85989583333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45935.86195601852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45936.42548611111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45936.42710648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45560.44894675926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45935.86399305556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45840</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>44477</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45938.61608796296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45840.39805555555</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45937.35234953704</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45840.37375</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45840.37756944444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45936.86752314815</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45132</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45747.57071759259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45938.6769212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45649.38905092593</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45649.4091550926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45939.63200231481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45938.46935185185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45938.44502314815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45843.34435185185</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45938.63663194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>45939.51086805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34199,7 +34199,7 @@
         <v>45939.56126157408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45105.92532407407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45943</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45201.64971064815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45099</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44994</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>45940.5402662037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44486.60745370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>45728.4180324074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>45068</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34774,7 +34774,7 @@
         <v>45945.29869212963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45945.36623842592</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45944.61510416667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45944.65270833333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>45944</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>45944</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>45944.61675925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45944.61872685186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45944.64472222222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>45945.36435185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45944.56497685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45583.69834490741</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>45947</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45947.34690972222</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>45341</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45947.446875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45947.34611111111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45951</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>45950.69006944444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35974,7 +35974,7 @@
         <v>45686.42653935185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45561.5891087963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45747.56618055556</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>45950</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>45603.75905092592</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45944</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45761</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>45257.80766203703</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>45949</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45950</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45856.53160879629</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>44522.9206712963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>45951</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>45796.51097222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36797,7 +36797,7 @@
         <v>45674</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>45949</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>45860.67740740741</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>45596</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45596.7612962963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45860.59417824074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>45791</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>45863.56016203704</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45587.49114583333</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44490</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>45953.36576388889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>45863.6125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45863.67741898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45769.49768518518</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45953.57349537037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>45953.36524305555</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45953.36546296296</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45645</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         <v>45685</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45957.39877314815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>45954</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>44378</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>45954</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45456</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45870</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45369.48284722222</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45834</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45950</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44994</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>45870</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45955.3459375</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45955.34597222223</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38701,7 +38701,7 @@
         <v>45685</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38758,7 +38758,7 @@
         <v>45838.5983912037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38815,7 +38815,7 @@
         <v>45646.61649305555</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38872,7 +38872,7 @@
         <v>45958.45878472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38934,7 +38934,7 @@
         <v>45874.42918981481</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>45875.45590277778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>45875</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>45512.36836805556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39172,7 +39172,7 @@
         <v>45868</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>44889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45874</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45406</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>45771.68158564815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>45958.4603587963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45958.45619212963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39591,7 +39591,7 @@
         <v>45960</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39653,7 +39653,7 @@
         <v>44881.55375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45877.44846064815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44356</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45961.41893518518</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45961</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45152</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45960.65726851852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45880.49046296296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>45587</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45965</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>45964.67619212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>45965.47797453704</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45248.94667824074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45965.68004629629</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45884</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45965</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45965.6757175926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>45965</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>45965</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>45964.53335648148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>45966</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>45966.68931712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>45966.69827546296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>45691.49005787037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41061,7 +41061,7 @@
         <v>44648</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41123,7 +41123,7 @@
         <v>45881.45475694445</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41180,7 +41180,7 @@
         <v>45966.67784722222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41237,7 +41237,7 @@
         <v>45882</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41294,7 +41294,7 @@
         <v>44565</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41351,7 +41351,7 @@
         <v>45642</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41408,7 +41408,7 @@
         <v>45971</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41465,7 +41465,7 @@
         <v>45265.27829861111</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41527,7 +41527,7 @@
         <v>45971</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41584,7 +41584,7 @@
         <v>45649.38344907408</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41641,7 +41641,7 @@
         <v>45882</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>45882</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>45646.65767361111</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>45971.57748842592</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>45971.65711805555</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>45574.46930555555</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45972.4177199074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42045,7 +42045,7 @@
         <v>45301</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42107,7 +42107,7 @@
         <v>45761</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42164,7 +42164,7 @@
         <v>45764.45171296296</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42221,7 +42221,7 @@
         <v>45750</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         <v>45649.45255787037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42340,7 +42340,7 @@
         <v>44292</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42397,7 +42397,7 @@
         <v>45975</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>45884.46996527778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42521,7 +42521,7 @@
         <v>45646.66561342592</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42578,7 +42578,7 @@
         <v>45974.53821759259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42635,7 +42635,7 @@
         <v>45975</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42697,7 +42697,7 @@
         <v>45975.34753472222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42759,7 +42759,7 @@
         <v>45974.68179398148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42816,7 +42816,7 @@
         <v>45975.5727662037</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42873,7 +42873,7 @@
         <v>45446</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42930,7 +42930,7 @@
         <v>45974.54921296296</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>45649.45635416666</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
         <v>45211.44008101852</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>45978.52048611111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43163,7 +43163,7 @@
         <v>45722</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43220,7 +43220,7 @@
         <v>45264.48927083334</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43277,7 +43277,7 @@
         <v>45978.64319444444</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43339,7 +43339,7 @@
         <v>46020.64043981482</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43396,7 +43396,7 @@
         <v>45978</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43453,7 +43453,7 @@
         <v>45614.81146990741</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43510,7 +43510,7 @@
         <v>45692.92622685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43567,7 +43567,7 @@
         <v>45981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43629,7 +43629,7 @@
         <v>45981</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>45981</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>45980.57114583333</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45639</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>45980.46717592593</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>44903</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45984.59300925926</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>45770</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45985.66855324074</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45672</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45985.45146990741</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45590.64114583333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45591</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45591</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45586</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>46029.64608796296</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>46029.6553125</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45425</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45986</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>46029.59305555555</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>44657</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45986</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45988.65805555556</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>46030.57347222222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>45653.3677662037</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>45901.64849537037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45901.65390046296</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45988.42171296296</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>46030.51109953703</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45988.65815972222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45988</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45988.36314814815</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44847</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45988.56065972222</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45210.53141203704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>46030.46947916667</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45741,7 +45741,7 @@
         <v>45988</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45798,7 +45798,7 @@
         <v>44573</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>46034.55679398148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45993</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45635.41246527778</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44859.95792824074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46093,7 +46093,7 @@
         <v>45356.96387731482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46150,7 +46150,7 @@
         <v>45992</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46212,7 +46212,7 @@
         <v>44925</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46269,7 +46269,7 @@
         <v>45749</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46326,7 +46326,7 @@
         <v>45544.58453703704</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46383,7 +46383,7 @@
         <v>45993</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
         <v>45314</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>45429.92297453704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46554,7 +46554,7 @@
         <v>45993</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46611,7 +46611,7 @@
         <v>46031</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46668,7 +46668,7 @@
         <v>45993</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46725,7 +46725,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>46036.59482638889</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46844,7 +46844,7 @@
         <v>46037.4491550926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>46036.42668981481</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46958,7 +46958,7 @@
         <v>44963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47015,7 +47015,7 @@
         <v>46037.39973379629</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47072,7 +47072,7 @@
         <v>45370</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>45995.47012731482</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>45995.39902777778</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47243,7 +47243,7 @@
         <v>45994.57334490741</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47300,7 +47300,7 @@
         <v>45994.57351851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47357,7 +47357,7 @@
         <v>44441</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47414,7 +47414,7 @@
         <v>45995.47004629629</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47471,7 +47471,7 @@
         <v>45505</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45994.48310185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45994.47119212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45994.47709490741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>44979</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47766,7 +47766,7 @@
         <v>45995.39693287037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47823,7 +47823,7 @@
         <v>45995</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47880,7 +47880,7 @@
         <v>45995.46967592592</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47937,7 +47937,7 @@
         <v>45994</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>46037.54501157408</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45994.55253472222</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48108,7 +48108,7 @@
         <v>45994.5735300926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48165,7 +48165,7 @@
         <v>46029</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48222,7 +48222,7 @@
         <v>45996</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48279,7 +48279,7 @@
         <v>45999.38200231481</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48336,7 +48336,7 @@
         <v>44374</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48393,7 +48393,7 @@
         <v>45470</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>44362.48555555556</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45653</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48569,7 +48569,7 @@
         <v>45999</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         <v>45999.38487268519</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>45999</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48740,7 +48740,7 @@
         <v>44529</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45574</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>46036</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45999.39361111111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48978,7 +48978,7 @@
         <v>45996.36384259259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49040,7 +49040,7 @@
         <v>46037.39181712963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>45980</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>45999</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49211,7 +49211,7 @@
         <v>46042.63012731481</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>45764</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>46001.51188657407</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>45600</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45906</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>46000.37386574074</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49558,7 +49558,7 @@
         <v>46000.3825</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49620,7 +49620,7 @@
         <v>46042.50797453704</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49677,7 +49677,7 @@
         <v>46000.63060185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49734,7 +49734,7 @@
         <v>46001</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49791,7 +49791,7 @@
         <v>46042</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49848,7 +49848,7 @@
         <v>46001.88341435185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49905,7 +49905,7 @@
         <v>45014.54700231482</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49962,7 +49962,7 @@
         <v>46029</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50019,7 +50019,7 @@
         <v>46003.68957175926</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50076,7 +50076,7 @@
         <v>46003.62949074074</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50138,7 +50138,7 @@
         <v>44642</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50195,7 +50195,7 @@
         <v>46003</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50252,7 +50252,7 @@
         <v>46003.58865740741</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50309,7 +50309,7 @@
         <v>44964.94435185185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>46003</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>46003.57069444445</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45077</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>46003.69137731481</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>46003.70054398148</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>46001.849375</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45770.63423611111</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>46003.62936342593</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50832,7 +50832,7 @@
         <v>45254</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50889,7 +50889,7 @@
         <v>46044</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50951,7 +50951,7 @@
         <v>44796</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51008,7 +51008,7 @@
         <v>46048.65663194445</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51065,7 +51065,7 @@
         <v>46048.67751157407</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51122,7 +51122,7 @@
         <v>45448</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>46029</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51246,7 +51246,7 @@
         <v>45589.34527777778</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>46048.67752314815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>45694.65678240741</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         <v>46009</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51484,7 +51484,7 @@
         <v>46009</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>45523.38938657408</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51603,7 +51603,7 @@
         <v>46008.46902777778</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51660,7 +51660,7 @@
         <v>46029</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>46050.58863425926</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51774,7 +51774,7 @@
         <v>45149</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51831,7 +51831,7 @@
         <v>45054</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51888,7 +51888,7 @@
         <v>45440.84460648148</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51945,7 +51945,7 @@
         <v>45429</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52002,7 +52002,7 @@
         <v>45994</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52059,7 +52059,7 @@
         <v>46029</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52116,7 +52116,7 @@
         <v>45085</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         <v>46009.53166666667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52230,7 +52230,7 @@
         <v>45427.93548611111</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52287,7 +52287,7 @@
         <v>46008.44835648148</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52344,7 +52344,7 @@
         <v>46007.88625</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52401,7 +52401,7 @@
         <v>45772.35642361111</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45232.44363425926</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52520,7 +52520,7 @@
         <v>46009</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52577,7 +52577,7 @@
         <v>45205</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52639,7 +52639,7 @@
         <v>46012.60637731481</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52696,7 +52696,7 @@
         <v>45281.57570601852</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52758,7 +52758,7 @@
         <v>46052.69329861111</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52815,7 +52815,7 @@
         <v>45896</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52877,7 +52877,7 @@
         <v>45902</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         <v>45902</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45639</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53058,7 +53058,7 @@
         <v>45583</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53120,7 +53120,7 @@
         <v>45583.69863425926</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53182,7 +53182,7 @@
         <v>46012.57121527778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53239,7 +53239,7 @@
         <v>46012.58362268518</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53296,7 +53296,7 @@
         <v>46012.59356481482</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>44903.92694444444</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>46012.56715277778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>46012.57534722222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>46012.59513888889</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45893</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53643,7 +53643,7 @@
         <v>45893</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53705,7 +53705,7 @@
         <v>46012</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53762,7 +53762,7 @@
         <v>46055</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53824,7 +53824,7 @@
         <v>45210</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53886,7 +53886,7 @@
         <v>46056.71625</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53943,7 +53943,7 @@
         <v>44833</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54000,7 +54000,7 @@
         <v>46057.63252314815</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54057,7 +54057,7 @@
         <v>46056.64997685186</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54114,7 +54114,7 @@
         <v>45922</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>46056.69520833333</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>46056.39515046297</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>44524</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>46056.66880787037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>44445</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54456,7 +54456,7 @@
         <v>45894</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>45212</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54580,7 +54580,7 @@
         <v>44706</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>44747</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54694,7 +54694,7 @@
         <v>44673</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54751,7 +54751,7 @@
         <v>46059.33741898148</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54808,7 +54808,7 @@
         <v>44333</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54865,7 +54865,7 @@
         <v>45624.4886574074</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>45548.41165509259</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54979,7 +54979,7 @@
         <v>46037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55041,7 +55041,7 @@
         <v>44657</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>44657</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55155,7 +55155,7 @@
         <v>46058.42759259259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55217,7 +55217,7 @@
         <v>46058.42774305555</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>46058.49032407408</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55336,7 +55336,7 @@
         <v>44966.95085648148</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55398,7 +55398,7 @@
         <v>45645</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45674.63210648148</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45691.56939814815</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55574,7 +55574,7 @@
         <v>45301</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55631,7 +55631,7 @@
         <v>45593</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55693,7 +55693,7 @@
         <v>45429</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55750,7 +55750,7 @@
         <v>45429</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55807,7 +55807,7 @@
         <v>45085</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55864,7 +55864,7 @@
         <v>44900</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55926,7 +55926,7 @@
         <v>45483</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55983,7 +55983,7 @@
         <v>45153</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56040,7 +56040,7 @@
         <v>45509.43402777778</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56097,7 +56097,7 @@
         <v>45414</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56154,7 +56154,7 @@
         <v>45414.95038194444</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56211,7 +56211,7 @@
         <v>45256</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56268,7 +56268,7 @@
         <v>45562</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56330,7 +56330,7 @@
         <v>45653.46015046296</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56387,7 +56387,7 @@
         <v>44788.65809027778</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56444,7 +56444,7 @@
         <v>45247.58217592593</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56501,7 +56501,7 @@
         <v>45483</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>45770.54408564815</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56615,7 +56615,7 @@
         <v>45499.63932870371</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56672,7 +56672,7 @@
         <v>45156</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56729,7 +56729,7 @@
         <v>44755</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56791,7 +56791,7 @@
         <v>45630.65877314815</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56848,7 +56848,7 @@
         <v>45110</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56910,7 +56910,7 @@
         <v>44642</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56972,7 +56972,7 @@
         <v>45070</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57029,7 +57029,7 @@
         <v>44901</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57086,7 +57086,7 @@
         <v>45195.94517361111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57148,7 +57148,7 @@
         <v>45300</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57205,7 +57205,7 @@
         <v>45649.39115740741</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57262,7 +57262,7 @@
         <v>45649.40401620371</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57319,7 +57319,7 @@
         <v>45589</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57381,7 +57381,7 @@
         <v>45589.34494212963</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57443,7 +57443,7 @@
         <v>45589</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57505,7 +57505,7 @@
         <v>45476.69083333333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57562,7 +57562,7 @@
         <v>45460</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57624,7 +57624,7 @@
         <v>45707.5637037037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57681,7 +57681,7 @@
         <v>45350</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -57738,7 +57738,7 @@
         <v>44732.92724537037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -57795,7 +57795,7 @@
         <v>45635.41770833333</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -57852,7 +57852,7 @@
         <v>45677.44833333333</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -57914,7 +57914,7 @@
         <v>44908</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57971,7 +57971,7 @@
         <v>45216</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58033,7 +58033,7 @@
         <v>44726.48164351852</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58090,7 +58090,7 @@
         <v>44566</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58147,7 +58147,7 @@
         <v>44841.66430555555</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58209,7 +58209,7 @@
         <v>45356</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58266,7 +58266,7 @@
         <v>45114</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58323,7 +58323,7 @@
         <v>45323</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58380,7 +58380,7 @@
         <v>44438</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58437,7 +58437,7 @@
         <v>44734.56864583334</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>45653.59047453704</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58551,7 +58551,7 @@
         <v>45770.56699074074</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45544.39978009259</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>44795</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -58722,7 +58722,7 @@
         <v>45161</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -58779,7 +58779,7 @@
         <v>45643.40710648148</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -58836,7 +58836,7 @@
         <v>45453.28876157408</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -58893,7 +58893,7 @@
         <v>45194.40741898148</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58955,7 +58955,7 @@
         <v>44908</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59012,7 +59012,7 @@
         <v>45358.95780092593</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59069,7 +59069,7 @@
         <v>45772</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59126,7 +59126,7 @@
         <v>45680.48986111111</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59188,7 +59188,7 @@
         <v>45187</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59250,7 +59250,7 @@
         <v>44887</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59312,7 +59312,7 @@
         <v>45166.83878472223</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59374,7 +59374,7 @@
         <v>45446.68098379629</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59436,7 +59436,7 @@
         <v>45653</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59493,7 +59493,7 @@
         <v>45174.4406712963</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59550,7 +59550,7 @@
         <v>45351</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59607,7 +59607,7 @@
         <v>45323</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -59664,7 +59664,7 @@
         <v>44931</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -59721,7 +59721,7 @@
         <v>45001</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -59778,7 +59778,7 @@
         <v>45732</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -59835,7 +59835,7 @@
         <v>45772.35200231482</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -59892,7 +59892,7 @@
         <v>45772.37400462963</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59949,7 +59949,7 @@
         <v>45770.56481481482</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60006,7 +60006,7 @@
         <v>45708.36651620371</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60068,7 +60068,7 @@
         <v>44964.94416666667</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60130,7 +60130,7 @@
         <v>45105</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60192,7 +60192,7 @@
         <v>45035</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60249,7 +60249,7 @@
         <v>45476.58195601852</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         <v>45093.68881944445</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60368,7 +60368,7 @@
         <v>44883</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60430,7 +60430,7 @@
         <v>45771</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60487,7 +60487,7 @@
         <v>45529.93233796296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60544,7 +60544,7 @@
         <v>45099</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60601,7 +60601,7 @@
         <v>44484</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -60658,7 +60658,7 @@
         <v>45561</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         <v>44573</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -60777,7 +60777,7 @@
         <v>45454</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -60834,7 +60834,7 @@
         <v>44614.40652777778</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -60891,7 +60891,7 @@
         <v>45079</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60948,7 +60948,7 @@
         <v>45762</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61005,7 +61005,7 @@
         <v>45646</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61062,7 +61062,7 @@
         <v>45205.37278935185</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61119,7 +61119,7 @@
         <v>45233.95826388889</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61181,7 +61181,7 @@
         <v>45646.61572916667</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61238,7 +61238,7 @@
         <v>44378</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61295,7 +61295,7 @@
         <v>45702.63587962963</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61357,7 +61357,7 @@
         <v>45379</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61414,7 +61414,7 @@
         <v>44994</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61471,7 +61471,7 @@
         <v>44568</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61528,7 +61528,7 @@
         <v>45572.48857638889</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61590,7 +61590,7 @@
         <v>45764</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -61647,7 +61647,7 @@
         <v>45764</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -61704,7 +61704,7 @@
         <v>45618.43688657408</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -61766,7 +61766,7 @@
         <v>45099.9296412037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -61823,7 +61823,7 @@
         <v>44812</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61880,7 +61880,7 @@
         <v>44823</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61942,7 +61942,7 @@
         <v>45646.57136574074</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61999,7 +61999,7 @@
         <v>45625</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62061,7 +62061,7 @@
         <v>45770.63237268518</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62118,7 +62118,7 @@
         <v>45723</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62175,7 +62175,7 @@
         <v>45723</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62232,7 +62232,7 @@
         <v>44856.89673611111</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62289,7 +62289,7 @@
         <v>45152</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62346,7 +62346,7 @@
         <v>45013</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62403,7 +62403,7 @@
         <v>44585</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62460,7 +62460,7 @@
         <v>45204</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62517,7 +62517,7 @@
         <v>45687</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -62574,7 +62574,7 @@
         <v>45667.37811342593</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -62631,7 +62631,7 @@
         <v>44391</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -62688,7 +62688,7 @@
         <v>44935.46053240741</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -62745,7 +62745,7 @@
         <v>45338</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -62802,7 +62802,7 @@
         <v>45453</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -62859,7 +62859,7 @@
         <v>45646.6295949074</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -62916,7 +62916,7 @@
         <v>45478</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         <v>45391.93160879629</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63030,7 +63030,7 @@
         <v>45778</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63092,7 +63092,7 @@
         <v>45782.40684027778</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63149,7 +63149,7 @@
         <v>45149</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63206,7 +63206,7 @@
         <v>45786</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63268,7 +63268,7 @@
         <v>45791.61200231482</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63330,7 +63330,7 @@
         <v>45791.615625</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63392,7 +63392,7 @@
         <v>45791.34467592592</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63454,7 +63454,7 @@
         <v>45379</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63511,7 +63511,7 @@
         <v>45791.61981481482</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -63573,7 +63573,7 @@
         <v>45791.59711805556</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -63635,7 +63635,7 @@
         <v>45792.34626157407</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -63697,7 +63697,7 @@
         <v>45793</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -63759,7 +63759,7 @@
         <v>45793.4693287037</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -63821,7 +63821,7 @@
         <v>45793</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         <v>45792.69864583333</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -63945,7 +63945,7 @@
         <v>45590</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64002,7 +64002,7 @@
         <v>45590</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64059,7 +64059,7 @@
         <v>45797</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -575,7 +575,7 @@
         <v>45586</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         <v>45763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45506</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45607.52168981481</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44853</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44964</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45237</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45790.67758101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44859</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45819</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45589.34458333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45212</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45295</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45771</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45645</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44433.55907407407</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44795</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45819</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45832.53813657408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>45512</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>45912.40692129629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>45944</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         <v>45049</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45980.62435185185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>45307</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>45684.44825231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45698</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>44463.40674768519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45820.34439814815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>45917.61134259259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>45834</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>45988</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>45999</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45893</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44904</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>46066.46748842593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45428</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45804.45221064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44487.66532407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44853</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44648</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>44804</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>44735.63122685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45517</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45701</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>45818.56559027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45820.60171296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>45833.43407407407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>45834.41993055555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>45910.65401620371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>45922.52559027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45714</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45964</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>45526</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45981</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45981</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45137</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>45155</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45559</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45638.43048611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44830</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45072</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44678</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45301</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44648</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44446.60008101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44417.69528935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44840</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44796</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44421</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44365</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>45313.6253125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45763.60056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44910</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45891.3190625</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45803.67</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45833.57443287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45611</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45901</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>45848.4612037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45863.57627314814</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45932.55138888889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>45943</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45586</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>45952.39126157408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>45952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>45958.54494212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45835.49065972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45960.43836805555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45960.65090277778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>45965.66847222222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>45538</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45513</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45980</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45994.48524305555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45995.61788194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45645</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>46003</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>46063.62548611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45205</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44692</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45406.96350694444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>45803.66833333333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44279.30587962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44677</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44274</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44577</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44414</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44414</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44350</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44354.25563657407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44659.6078587963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44671</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44489.94650462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44313</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44350</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44414</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44414</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44463.27165509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44809</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44414</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44414</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44648</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44462.92758101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44274</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44286</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44617</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44274</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>44284</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44464</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44865</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44609</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44609</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44389.38752314815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44671</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44461.62384259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44887.95318287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44543.62024305556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44721</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44378</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44371.60706018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44530.47554398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44648</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44473</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44734</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44248</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44566</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44566</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44600.31258101852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44274</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44313</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44358</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44722</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44749</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44438</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44530</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44480</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44414</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44573.46630787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44566</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44820.29530092593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44625.78322916666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>44596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44831.94553240741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44279.38570601852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44313</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44313</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44799.94413194444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44799.94417824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44743.43572916667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44873.32177083333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44313</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44480</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44565</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44439</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44356</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44428.58703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44797.36959490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44796</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44796</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44484</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44293</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44356</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44489</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44795</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>44812.44233796297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>44671</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45310.9390162037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44463.40267361111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45022.44041666666</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45419.6787962963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45692.91950231481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44423</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45411</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44833</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>45518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44552</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45089.37991898148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44609</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45762</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>45646.6669212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45238.9265625</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44330</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45682</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44298</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44783.85420138889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44248</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45646.63835648148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45125.95043981481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45210.46891203704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45635.41479166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>45763.6009375</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>44392</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45419</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44489</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45600.3993287037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>45600.40488425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45254</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>45537.27357638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45114</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45582</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44880.59427083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44881.9272337963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44377.49069444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45237</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45345</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45512.53328703704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44558</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44386</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45539.52540509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45226</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44529</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45232</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44970</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>45285</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45604.69282407407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44441.35422453703</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45764</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44301.66649305556</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45397</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45397</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44474.65423611111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45758</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44983</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45544.59535879629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45260</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45772.35878472222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45772.3677662037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45527.50440972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44484</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45600.38277777778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45544.57657407408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45264</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45264</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45516</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45516.94962962963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45589</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45408.96730324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44935</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45543.34873842593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45544.4128125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45766.71910879629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45709.64082175926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45818.60010416667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45714.69826388889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45427.93494212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45643</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45560.44918981481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44573</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45246</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45884.46990740741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45818.34452546296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45818.52607638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45887</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45818</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45574.51377314814</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45818.56925925926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45448</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21891,7 +21891,7 @@
         <v>45818</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>45818.43130787037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45194.40387731481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45244</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45748</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45764</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>45840.39109953704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>45824</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>45824</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45649.45567129629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45824</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22620,7 +22620,7 @@
         <v>45827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45827</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45890</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>45891.37986111111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45874</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>45826.46918981482</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>45891</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45832.67101851852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45103.92518518519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45895.44861111111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45895</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45894</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>45646</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>45894</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45826</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45826.49025462963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45744.46895833333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>45893.46916666667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45831.60569444444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45764.46482638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45070.92538194444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45831.54939814815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45894</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44648</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45897.48924768518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>45831.5465625</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45897</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45232</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45897.33677083333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>45833.43721064815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45897.48153935185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45408.96738425926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45832.68653935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45833</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45832.6991087963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45832.69638888889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45672</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45764</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45833.61671296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45894</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>45834.59451388889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>45901.41519675926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>45835.74189814815</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45901.37751157407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>45254</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>45834.59415509259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45834.59708333333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45646.62667824074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45646.62850694444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>45835.44276620371</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45769</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45901.65690972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45463.58862268519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>45902.32747685185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25915,7 +25915,7 @@
         <v>45902.40394675926</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45903</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26039,7 +26039,7 @@
         <v>45901</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>45831</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45715.34438657408</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45803</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45839.46466435185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45667.37363425926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45667.39547453704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45905.42783564814</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45906.71729166667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45841.5124537037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45841.69828703703</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45840</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45840.50157407407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45841.5196875</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>45840</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>45840.39805555555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>45840.37375</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>45840.37756944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45747.57071759259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45907.34451388889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484.36106481482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44628</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45911.3857175926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45843.34435185185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45161</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>45161</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45910</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>45718.80024305556</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45646.64119212963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45246</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>45630.69038194444</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>45910</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45910</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>44421.25067129629</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>45356</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44299</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44735</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45912.63472222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45358</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>45915.40732638889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45915</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>45102.92748842593</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45316</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45912.40695601852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45912.40694444445</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45915.69679398148</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45912</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28803,7 +28803,7 @@
         <v>45917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45770</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44529</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44648</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>45686.42653935185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>45747.56618055556</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>45212</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45603.75905092592</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45919.56777777777</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45919.57042824074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45476.58649305555</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45856.53160879629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>44474</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>44566</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45551.34525462963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>45796.51097222222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>45674</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>45922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>45922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>45922</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>45922</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>45707.53890046296</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>45860.67740740741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>45922.59516203704</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45922.59851851852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45596.7612962963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>45860.59417824074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>45863.56016203704</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30561,7 +30561,7 @@
         <v>45560.44894675926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>45923.39789351852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45863.6125</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45863.67741898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44477</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>45925.65679398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30918,7 +30918,7 @@
         <v>45925.65686342592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45132</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45924</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>45649.38905092593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45649.4091550926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>45924</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45770</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45924</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45704</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31431,7 +31431,7 @@
         <v>45929.42951388889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31488,7 +31488,7 @@
         <v>45926.56126157408</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>45926.6309375</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>45926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45456</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45870</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31783,7 +31783,7 @@
         <v>45369.48284722222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31840,7 +31840,7 @@
         <v>45834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45105.92532407407</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45870</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45201.64971064815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>45099</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32130,7 +32130,7 @@
         <v>45838.5983912037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32187,7 +32187,7 @@
         <v>45931.45284722222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45930.52233796296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45930.51315972222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>44994</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45930.36501157407</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>44486.60745370371</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45728.4180324074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45874.42918981481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45068</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>45875.45590277778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45930</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>45875</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45868</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45932.6296875</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>45874</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>45933.27458333333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45906</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45932.55758101852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45583.69834490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45877.44846064815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>45933.50032407408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45933.43833333333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         <v>45933.44135416667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33568,7 +33568,7 @@
         <v>44445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
         <v>45341</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>45880.49046296296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>45932.67795138889</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>45884</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33873,7 +33873,7 @@
         <v>45561.5891087963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>45935.85989583333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>45935.86195601852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>45936.42548611111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45936.42710648148</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45935.86399305556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45257.80766203703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>45881.45475694445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45882</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44522.9206712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>45938.61608796296</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45937.35234953704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45882</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45882</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34676,7 +34676,7 @@
         <v>45936.86752314815</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45596</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45938.6769212963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45587.49114583333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45939.63200231481</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45764.45171296296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>45938.46935185185</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>45649.45255787037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45938.44502314815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45769.49768518518</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45938.63663194444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45645</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>45939.51086805556</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>45939.56126157408</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35489,7 +35489,7 @@
         <v>45884.46996527778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45685</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35608,7 +35608,7 @@
         <v>45943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35665,7 +35665,7 @@
         <v>44378</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35722,7 +35722,7 @@
         <v>45940.5402662037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35779,7 +35779,7 @@
         <v>45446</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35836,7 +35836,7 @@
         <v>45945.29869212963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35898,7 +35898,7 @@
         <v>45945.36623842592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35955,7 +35955,7 @@
         <v>44994</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>45944.61510416667</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>45944.65270833333</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>45944</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>45944</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>45649.45635416666</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         <v>45685</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36364,7 +36364,7 @@
         <v>45944.61675925926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36426,7 +36426,7 @@
         <v>45944.61872685186</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36488,7 +36488,7 @@
         <v>45944.64472222222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36545,7 +36545,7 @@
         <v>45211.44008101852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36607,7 +36607,7 @@
         <v>45945.36435185185</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36664,7 +36664,7 @@
         <v>45646.61649305555</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36721,7 +36721,7 @@
         <v>45944.56497685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36783,7 +36783,7 @@
         <v>45512.36836805556</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36840,7 +36840,7 @@
         <v>45947</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>44889</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>45947.34690972222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37021,7 +37021,7 @@
         <v>45406</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37078,7 +37078,7 @@
         <v>45947.446875</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45947.34611111111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>45951</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37259,7 +37259,7 @@
         <v>45950.69006944444</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
         <v>45771.68158564815</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45950</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45944</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45761</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44881.55375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37616,7 +37616,7 @@
         <v>45949</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37678,7 +37678,7 @@
         <v>45950</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37735,7 +37735,7 @@
         <v>45951</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
         <v>44356</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37849,7 +37849,7 @@
         <v>45949</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37911,7 +37911,7 @@
         <v>45152</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>45791</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38030,7 +38030,7 @@
         <v>45587</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38087,7 +38087,7 @@
         <v>44490</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38149,7 +38149,7 @@
         <v>45953.36576388889</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>45248.94667824074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38268,7 +38268,7 @@
         <v>45953.57349537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38325,7 +38325,7 @@
         <v>45953.36524305555</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>45953.36546296296</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>45957.39877314815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45954</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38573,7 +38573,7 @@
         <v>45691.49005787037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>44648</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38697,7 +38697,7 @@
         <v>45954</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>44565</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>45950</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>45642</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45955.3459375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>45955.34597222223</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>45265.27829861111</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45649.38344907408</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45646.65767361111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45958.45878472222</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45574.46930555555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>45958.4603587963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45301</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39468,7 +39468,7 @@
         <v>45958.45619212963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
         <v>45761</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39649,7 +39649,7 @@
         <v>45750</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>44292</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>45646.66561342592</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39825,7 +39825,7 @@
         <v>45961.41893518518</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39882,7 +39882,7 @@
         <v>45961</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45960.65726851852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>45965</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>45964.67619212963</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>45965.47797453704</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45965.68004629629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45965</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45965.6757175926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>45965</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>45965</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40467,7 +40467,7 @@
         <v>45264.48927083334</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45964.53335648148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45966</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45966.68931712963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>45966.69827546296</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40752,7 +40752,7 @@
         <v>45614.81146990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40809,7 +40809,7 @@
         <v>45692.92622685185</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         <v>45966.67784722222</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40923,7 +40923,7 @@
         <v>45639</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>45971</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45971</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>44903</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>45770</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41208,7 +41208,7 @@
         <v>45971.57748842592</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41265,7 +41265,7 @@
         <v>45971.65711805555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41322,7 +41322,7 @@
         <v>45972.4177199074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>45672</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41436,7 +41436,7 @@
         <v>45590.64114583333</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41498,7 +41498,7 @@
         <v>45591</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45591</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45975</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45586</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         <v>45974.53821759259</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41803,7 +41803,7 @@
         <v>45975</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41865,7 +41865,7 @@
         <v>45425</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41922,7 +41922,7 @@
         <v>45975.34753472222</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41984,7 +41984,7 @@
         <v>45974.68179398148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42041,7 +42041,7 @@
         <v>45975.5727662037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42098,7 +42098,7 @@
         <v>45974.54921296296</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42155,7 +42155,7 @@
         <v>45978.52048611111</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42212,7 +42212,7 @@
         <v>44657</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42269,7 +42269,7 @@
         <v>45722</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42326,7 +42326,7 @@
         <v>45978.64319444444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42388,7 +42388,7 @@
         <v>45978</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42445,7 +42445,7 @@
         <v>45653.3677662037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42502,7 +42502,7 @@
         <v>45981</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42564,7 +42564,7 @@
         <v>45981</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         <v>45981</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42683,7 +42683,7 @@
         <v>45980.57114583333</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42740,7 +42740,7 @@
         <v>44847</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42797,7 +42797,7 @@
         <v>45210.53141203704</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>45980.46717592593</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45984.59300925926</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>45985.66855324074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>44573</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43092,7 +43092,7 @@
         <v>45635.41246527778</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43149,7 +43149,7 @@
         <v>44859.95792824074</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43211,7 +43211,7 @@
         <v>45985.45146990741</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43273,7 +43273,7 @@
         <v>45356.96387731482</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43330,7 +43330,7 @@
         <v>44925</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43387,7 +43387,7 @@
         <v>45749</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43444,7 +43444,7 @@
         <v>45544.58453703704</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43501,7 +43501,7 @@
         <v>45314</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43558,7 +43558,7 @@
         <v>45429.92297453704</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43615,7 +43615,7 @@
         <v>45986</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43672,7 +43672,7 @@
         <v>45986</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43729,7 +43729,7 @@
         <v>45988.65805555556</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43786,7 +43786,7 @@
         <v>45091</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43843,7 +43843,7 @@
         <v>45901.64849537037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43905,7 +43905,7 @@
         <v>45901.65390046296</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43967,7 +43967,7 @@
         <v>45988.42171296296</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44024,7 +44024,7 @@
         <v>45988.65815972222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44081,7 +44081,7 @@
         <v>44963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44138,7 +44138,7 @@
         <v>45988</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44195,7 +44195,7 @@
         <v>45988.36314814815</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44252,7 +44252,7 @@
         <v>45988.56065972222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44309,7 +44309,7 @@
         <v>45370</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44366,7 +44366,7 @@
         <v>45988</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44423,7 +44423,7 @@
         <v>46034.55679398148</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44480,7 +44480,7 @@
         <v>44441</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44537,7 +44537,7 @@
         <v>45993</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44594,7 +44594,7 @@
         <v>45505</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44656,7 +44656,7 @@
         <v>45992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44718,7 +44718,7 @@
         <v>44979</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44780,7 +44780,7 @@
         <v>45993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44837,7 +44837,7 @@
         <v>45993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44894,7 +44894,7 @@
         <v>45993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44951,7 +44951,7 @@
         <v>44374</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45008,7 +45008,7 @@
         <v>45470</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44362.48555555556</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>46036.59482638889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45189,7 +45189,7 @@
         <v>45653</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45246,7 +45246,7 @@
         <v>46037.4491550926</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45303,7 +45303,7 @@
         <v>46036.42668981481</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45360,7 +45360,7 @@
         <v>46037.39973379629</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45417,7 +45417,7 @@
         <v>45995.47012731482</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45474,7 +45474,7 @@
         <v>45995.39902777778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45531,7 +45531,7 @@
         <v>45994.57334490741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45588,7 +45588,7 @@
         <v>45994.57351851852</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45645,7 +45645,7 @@
         <v>45995.47004629629</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45702,7 +45702,7 @@
         <v>45994.48310185185</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45759,7 +45759,7 @@
         <v>45994.47119212963</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45816,7 +45816,7 @@
         <v>45994.47709490741</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>45995.39693287037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>45995</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45995.46967592592</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46044,7 +46044,7 @@
         <v>44529</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46101,7 +46101,7 @@
         <v>45994</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>46037.54501157408</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46215,7 +46215,7 @@
         <v>45574</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45994.55253472222</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>45994.5735300926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46391,7 +46391,7 @@
         <v>45996</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>45999.38200231481</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>45999</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46562,7 +46562,7 @@
         <v>45999.38487268519</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46619,7 +46619,7 @@
         <v>45999</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46676,7 +46676,7 @@
         <v>45764</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46733,7 +46733,7 @@
         <v>45600</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46790,7 +46790,7 @@
         <v>46036</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>45999.39361111111</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>45996.36384259259</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46971,7 +46971,7 @@
         <v>46037.39181712963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>45999</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>46042.63012731481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45014.54700231482</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47199,7 +47199,7 @@
         <v>46001.51188657407</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45906</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>46000.37386574074</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47375,7 +47375,7 @@
         <v>46000.3825</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47437,7 +47437,7 @@
         <v>46042.50797453704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47494,7 +47494,7 @@
         <v>46000.63060185185</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47551,7 +47551,7 @@
         <v>46001</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47608,7 +47608,7 @@
         <v>44642</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47665,7 +47665,7 @@
         <v>44964.94435185185</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         <v>46042</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47784,7 +47784,7 @@
         <v>46001.88341435185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>45077</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47898,7 +47898,7 @@
         <v>45770.63423611111</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47955,7 +47955,7 @@
         <v>45254</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48012,7 +48012,7 @@
         <v>44796</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         <v>46003.68957175926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48126,7 +48126,7 @@
         <v>46003.62949074074</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48188,7 +48188,7 @@
         <v>45448</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>46003</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>46003.58865740741</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48364,7 +48364,7 @@
         <v>46003</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48421,7 +48421,7 @@
         <v>46003.57069444445</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48478,7 +48478,7 @@
         <v>46003.69137731481</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48535,7 +48535,7 @@
         <v>46003.70054398148</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48592,7 +48592,7 @@
         <v>46001.849375</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>46003.62936342593</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48711,7 +48711,7 @@
         <v>45589.34527777778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48773,7 +48773,7 @@
         <v>46044</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>45694.65678240741</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48897,7 +48897,7 @@
         <v>46048.65663194445</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48954,7 +48954,7 @@
         <v>46048.67751157407</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
         <v>45523.38938657408</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>45149</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49130,7 +49130,7 @@
         <v>45054</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49187,7 +49187,7 @@
         <v>45440.84460648148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49244,7 +49244,7 @@
         <v>45429</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49301,7 +49301,7 @@
         <v>45085</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49358,7 +49358,7 @@
         <v>45427.93548611111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49415,7 +49415,7 @@
         <v>46048.67752314815</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49472,7 +49472,7 @@
         <v>45772.35642361111</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49529,7 +49529,7 @@
         <v>46009</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         <v>46009</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49643,7 +49643,7 @@
         <v>45232.44363425926</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49705,7 +49705,7 @@
         <v>46008.46902777778</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49762,7 +49762,7 @@
         <v>46050.58863425926</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49819,7 +49819,7 @@
         <v>45994</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49876,7 +49876,7 @@
         <v>45281.57570601852</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49938,7 +49938,7 @@
         <v>46009.53166666667</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -49995,7 +49995,7 @@
         <v>46008.44835648148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50052,7 +50052,7 @@
         <v>45639</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50109,7 +50109,7 @@
         <v>45583</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50171,7 +50171,7 @@
         <v>45583.69863425926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50233,7 +50233,7 @@
         <v>44903.92694444444</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50290,7 +50290,7 @@
         <v>46009</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         <v>46012.60637731481</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50404,7 +50404,7 @@
         <v>46052.69329861111</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50461,7 +50461,7 @@
         <v>45210</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50523,7 +50523,7 @@
         <v>45896</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50585,7 +50585,7 @@
         <v>45902</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50647,7 +50647,7 @@
         <v>45902</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50709,7 +50709,7 @@
         <v>44833</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50766,7 +50766,7 @@
         <v>46012.57121527778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50823,7 +50823,7 @@
         <v>46012.58362268518</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>46012.59356481482</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50937,7 +50937,7 @@
         <v>44524</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -50994,7 +50994,7 @@
         <v>44445</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51051,7 +51051,7 @@
         <v>46012.56715277778</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51108,7 +51108,7 @@
         <v>46012.57534722222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>46012.59513888889</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51222,7 +51222,7 @@
         <v>45212</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51284,7 +51284,7 @@
         <v>45893</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45893</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51408,7 +51408,7 @@
         <v>46012</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51465,7 +51465,7 @@
         <v>46055</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51527,7 +51527,7 @@
         <v>44706</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>46056.71625</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44747</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>46057.63252314815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51755,7 +51755,7 @@
         <v>46056.64997685186</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44673</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>46056.69520833333</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51926,7 +51926,7 @@
         <v>46056.39515046297</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -51983,7 +51983,7 @@
         <v>46056.66880787037</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52040,7 +52040,7 @@
         <v>45894</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52102,7 +52102,7 @@
         <v>44333</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52159,7 +52159,7 @@
         <v>45624.4886574074</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52216,7 +52216,7 @@
         <v>45548.41165509259</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52273,7 +52273,7 @@
         <v>44657</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52330,7 +52330,7 @@
         <v>44657</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52387,7 +52387,7 @@
         <v>46059.33741898148</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52444,7 +52444,7 @@
         <v>44966.95085648148</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52506,7 +52506,7 @@
         <v>46058.42759259259</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52568,7 +52568,7 @@
         <v>46058.42774305555</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52630,7 +52630,7 @@
         <v>46058.49032407408</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52687,7 +52687,7 @@
         <v>46007.88625</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52744,7 +52744,7 @@
         <v>45645</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52806,7 +52806,7 @@
         <v>46062.41314814815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52863,7 +52863,7 @@
         <v>45674.63210648148</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52920,7 +52920,7 @@
         <v>45691.56939814815</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -52977,7 +52977,7 @@
         <v>46063.38982638889</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53034,7 +53034,7 @@
         <v>45922</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53091,7 +53091,7 @@
         <v>45301</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53148,7 +53148,7 @@
         <v>45593</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53210,7 +53210,7 @@
         <v>46063.62290509259</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53267,7 +53267,7 @@
         <v>46020.64043981482</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53324,7 +53324,7 @@
         <v>45980</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53381,7 +53381,7 @@
         <v>46065.38643518519</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         <v>45429</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53500,7 +53500,7 @@
         <v>45429</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53557,7 +53557,7 @@
         <v>45085</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53614,7 +53614,7 @@
         <v>44900</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53676,7 +53676,7 @@
         <v>45205</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53738,7 +53738,7 @@
         <v>45483</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53795,7 +53795,7 @@
         <v>45153</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53852,7 +53852,7 @@
         <v>46066.46159722222</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53909,7 +53909,7 @@
         <v>45509.43402777778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53966,7 +53966,7 @@
         <v>46066.54534722222</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>45414</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54080,7 +54080,7 @@
         <v>45414.95038194444</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54137,7 +54137,7 @@
         <v>46066.54795138889</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54194,7 +54194,7 @@
         <v>45256</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54251,7 +54251,7 @@
         <v>45562</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54313,7 +54313,7 @@
         <v>45653.46015046296</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54370,7 +54370,7 @@
         <v>44788.65809027778</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54427,7 +54427,7 @@
         <v>46029.6553125</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54484,7 +54484,7 @@
         <v>45247.58217592593</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54541,7 +54541,7 @@
         <v>45483</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54598,7 +54598,7 @@
         <v>46029</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54655,7 +54655,7 @@
         <v>46029</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54712,7 +54712,7 @@
         <v>46029.64608796296</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54769,7 +54769,7 @@
         <v>45770.54408564815</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54826,7 +54826,7 @@
         <v>45499.63932870371</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         <v>46029.59305555555</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54940,7 +54940,7 @@
         <v>45156</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54997,7 +54997,7 @@
         <v>44755</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55059,7 +55059,7 @@
         <v>45630.65877314815</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55116,7 +55116,7 @@
         <v>46073.69533564815</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55173,7 +55173,7 @@
         <v>45110</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55235,7 +55235,7 @@
         <v>44642</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55297,7 +55297,7 @@
         <v>46037</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55359,7 +55359,7 @@
         <v>46030.51109953703</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55421,7 +55421,7 @@
         <v>45070</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55478,7 +55478,7 @@
         <v>44901</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55535,7 +55535,7 @@
         <v>46030.57347222222</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55597,7 +55597,7 @@
         <v>46029</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55654,7 +55654,7 @@
         <v>46029</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55711,7 +55711,7 @@
         <v>45195.94517361111</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         <v>46029</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55835,7 +55835,7 @@
         <v>45300</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55892,7 +55892,7 @@
         <v>46030.46947916667</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55954,7 +55954,7 @@
         <v>46031</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56011,7 +56011,7 @@
         <v>45649.39115740741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56068,7 +56068,7 @@
         <v>45649.40401620371</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56125,7 +56125,7 @@
         <v>45589</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56187,7 +56187,7 @@
         <v>45589.34494212963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56249,7 +56249,7 @@
         <v>45589</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56311,7 +56311,7 @@
         <v>45476.69083333333</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56368,7 +56368,7 @@
         <v>45460</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56430,7 +56430,7 @@
         <v>45707.5637037037</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56487,7 +56487,7 @@
         <v>45350</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56544,7 +56544,7 @@
         <v>44732.92724537037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56601,7 +56601,7 @@
         <v>45635.41770833333</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56658,7 +56658,7 @@
         <v>45677.44833333333</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56720,7 +56720,7 @@
         <v>44908</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56777,7 +56777,7 @@
         <v>45216</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56839,7 +56839,7 @@
         <v>44726.48164351852</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56896,7 +56896,7 @@
         <v>44566</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56953,7 +56953,7 @@
         <v>44841.66430555555</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57015,7 +57015,7 @@
         <v>45356</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57072,7 +57072,7 @@
         <v>45114</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57129,7 +57129,7 @@
         <v>45323</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         <v>44438</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57243,7 +57243,7 @@
         <v>44734.56864583334</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57300,7 +57300,7 @@
         <v>45653.59047453704</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         <v>45770.56699074074</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57414,7 +57414,7 @@
         <v>45544.39978009259</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57471,7 +57471,7 @@
         <v>44795</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57528,7 +57528,7 @@
         <v>45161</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57585,7 +57585,7 @@
         <v>45643.40710648148</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57642,7 +57642,7 @@
         <v>45453.28876157408</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -57699,7 +57699,7 @@
         <v>45194.40741898148</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -57761,7 +57761,7 @@
         <v>44908</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -57818,7 +57818,7 @@
         <v>45358.95780092593</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -57875,7 +57875,7 @@
         <v>45772</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57932,7 +57932,7 @@
         <v>45680.48986111111</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57994,7 +57994,7 @@
         <v>45187</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58056,7 +58056,7 @@
         <v>44887</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58118,7 +58118,7 @@
         <v>45166.83878472223</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58180,7 +58180,7 @@
         <v>45446.68098379629</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58242,7 +58242,7 @@
         <v>45653</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58299,7 +58299,7 @@
         <v>45174.4406712963</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58356,7 +58356,7 @@
         <v>45351</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58413,7 +58413,7 @@
         <v>45323</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58470,7 +58470,7 @@
         <v>44931</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58527,7 +58527,7 @@
         <v>45001</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58584,7 +58584,7 @@
         <v>45732</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -58641,7 +58641,7 @@
         <v>45772.35200231482</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -58698,7 +58698,7 @@
         <v>45772.37400462963</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -58755,7 +58755,7 @@
         <v>45770.56481481482</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -58812,7 +58812,7 @@
         <v>45708.36651620371</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -58874,7 +58874,7 @@
         <v>44964.94416666667</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58936,7 +58936,7 @@
         <v>45105</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58998,7 +58998,7 @@
         <v>45035</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59055,7 +59055,7 @@
         <v>45476.58195601852</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59112,7 +59112,7 @@
         <v>45093.68881944445</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59174,7 +59174,7 @@
         <v>44883</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59236,7 +59236,7 @@
         <v>45771</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59293,7 +59293,7 @@
         <v>45529.93233796296</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59350,7 +59350,7 @@
         <v>45099</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59407,7 +59407,7 @@
         <v>44484</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59464,7 +59464,7 @@
         <v>45561</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59521,7 +59521,7 @@
         <v>44573</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59583,7 +59583,7 @@
         <v>45454</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -59640,7 +59640,7 @@
         <v>44614.40652777778</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -59697,7 +59697,7 @@
         <v>45079</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -59754,7 +59754,7 @@
         <v>45762</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -59811,7 +59811,7 @@
         <v>45646</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -59868,7 +59868,7 @@
         <v>45205.37278935185</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59925,7 +59925,7 @@
         <v>45233.95826388889</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59987,7 +59987,7 @@
         <v>45646.61572916667</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60044,7 +60044,7 @@
         <v>44378</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60101,7 +60101,7 @@
         <v>45702.63587962963</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60163,7 +60163,7 @@
         <v>45379</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60220,7 +60220,7 @@
         <v>44994</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60277,7 +60277,7 @@
         <v>44568</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60334,7 +60334,7 @@
         <v>45572.48857638889</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60396,7 +60396,7 @@
         <v>45764</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         <v>45764</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60510,7 +60510,7 @@
         <v>45618.43688657408</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60572,7 +60572,7 @@
         <v>45099.9296412037</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -60629,7 +60629,7 @@
         <v>44812</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -60686,7 +60686,7 @@
         <v>44823</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -60748,7 +60748,7 @@
         <v>45646.57136574074</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -60805,7 +60805,7 @@
         <v>45625</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -60867,7 +60867,7 @@
         <v>45770.63237268518</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60924,7 +60924,7 @@
         <v>45723</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60981,7 +60981,7 @@
         <v>45723</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61038,7 +61038,7 @@
         <v>44856.89673611111</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61095,7 +61095,7 @@
         <v>45152</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45013</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61209,7 +61209,7 @@
         <v>44585</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         <v>45204</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61323,7 +61323,7 @@
         <v>45687</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61380,7 +61380,7 @@
         <v>45667.37811342593</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61437,7 +61437,7 @@
         <v>44391</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61494,7 +61494,7 @@
         <v>44935.46053240741</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61551,7 +61551,7 @@
         <v>45338</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -61608,7 +61608,7 @@
         <v>45453</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -61665,7 +61665,7 @@
         <v>45646.6295949074</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -61722,7 +61722,7 @@
         <v>45478</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -61779,7 +61779,7 @@
         <v>45391.93160879629</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61836,7 +61836,7 @@
         <v>45778</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61898,7 +61898,7 @@
         <v>45782.40684027778</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61955,7 +61955,7 @@
         <v>45149</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62012,7 +62012,7 @@
         <v>45786</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62074,7 +62074,7 @@
         <v>45791.61200231482</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62136,7 +62136,7 @@
         <v>45791.615625</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62198,7 +62198,7 @@
         <v>45791.34467592592</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62260,7 +62260,7 @@
         <v>45379</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62317,7 +62317,7 @@
         <v>45791.61981481482</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62379,7 +62379,7 @@
         <v>45791.59711805556</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62441,7 +62441,7 @@
         <v>45792.34626157407</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62503,7 +62503,7 @@
         <v>45793</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -62565,7 +62565,7 @@
         <v>45793.4693287037</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -62627,7 +62627,7 @@
         <v>45793</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -62689,7 +62689,7 @@
         <v>45792.69864583333</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -62751,7 +62751,7 @@
         <v>45590</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -62808,7 +62808,7 @@
         <v>45590</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -62865,7 +62865,7 @@
         <v>45797</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -62927,7 +62927,7 @@
         <v>45799.34436342592</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -62989,7 +62989,7 @@
         <v>45799.34511574074</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45798.44548611111</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63113,7 +63113,7 @@
         <v>45798</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63175,7 +63175,7 @@
         <v>44862.66424768518</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63232,7 +63232,7 @@
         <v>45798.71922453704</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45803</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45803.61491898148</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63413,7 +63413,7 @@
         <v>45803.66424768518</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63475,7 +63475,7 @@
         <v>45804.34440972222</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63537,7 +63537,7 @@
         <v>45608</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -63594,7 +63594,7 @@
         <v>45608</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -63651,7 +63651,7 @@
         <v>45608</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -63708,7 +63708,7 @@
         <v>45590</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         <v>45429</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -63822,7 +63822,7 @@
         <v>45464</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -63884,7 +63884,7 @@
         <v>45645.46262731482</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -63941,7 +63941,7 @@
         <v>45763.5946412037</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -63998,7 +63998,7 @@
         <v>45546</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64060,7 +64060,7 @@
         <v>45243.48854166667</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64117,7 +64117,7 @@
         <v>45813.53178240741</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64174,7 +64174,7 @@
         <v>45813</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64236,7 +64236,7 @@
         <v>45813</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64298,7 +64298,7 @@
         <v>45813.49092592593</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64360,7 +64360,7 @@
         <v>45813.46928240741</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64422,7 +64422,7 @@
         <v>45813.42777777778</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64484,7 +64484,7 @@
         <v>45316.44841435185</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64541,7 +64541,7 @@
         <v>45481.95275462963</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
